--- a/Algo-Results.xlsx
+++ b/Algo-Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\nycdsa-kaggle-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\nycdsa\Projects\04-Kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -52,16 +52,77 @@
   </si>
   <si>
     <t>Mean AMS Score</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Top Private Leaderboard Scores Benchmark</t>
+  </si>
+  <si>
+    <t>10 - 3.75838</t>
+  </si>
+  <si>
+    <t>15 - 3.74604</t>
+  </si>
+  <si>
+    <t>20 - 3.73932</t>
+  </si>
+  <si>
+    <t>30 - 3.72654</t>
+  </si>
+  <si>
+    <t>50 - 3.71768</t>
+  </si>
+  <si>
+    <t>3   - 3.78682</t>
+  </si>
+  <si>
+    <t>2   - 3.78913</t>
+  </si>
+  <si>
+    <t>1   - 3.80581</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>zeros</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>Best Combo So Far</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +138,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -144,8 +233,44 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,49 +552,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H11" s="19" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.99202000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.97607999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1.00702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1.00969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1.0027999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.77995999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1.00983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.88221000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.92456000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1.7829900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1.76413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1.55776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4">
+        <v>30</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="21">
+        <v>1.8181499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1.7602599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4">
+        <v>30</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="18">
+        <v>3.5075699999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="18">
+        <v>3.5078999999999998</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Algo-Results.xlsx
+++ b/Algo-Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\nycdsa\Projects\04-Kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Projects\04-Kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Tester</t>
+  </si>
+  <si>
+    <t>Nanda</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,8 +1067,86 @@
       <c r="H27" s="18">
         <v>3.5078999999999998</v>
       </c>
-      <c r="I27" s="22" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
+        <v>30</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="18">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="I28" s="22" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="18">
+        <v>3.2513000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4">
+        <v>30</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Algo-Results.xlsx
+++ b/Algo-Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Projects\04-Kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\nycdsa-kaggle-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Nanda</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1142,8 @@
       <c r="G30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>30</v>
+      <c r="H30" s="18">
+        <v>3.5203000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Algo-Results.xlsx
+++ b/Algo-Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\nycdsa-kaggle-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Projects\04-Kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Threshold</t>
   </si>
   <si>
-    <t>Imputter</t>
-  </si>
-  <si>
     <t>Standardized</t>
   </si>
   <si>
@@ -115,6 +112,18 @@
   </si>
   <si>
     <t>Nanda</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>most_frequent</t>
+  </si>
+  <si>
+    <t>Imputer</t>
+  </si>
+  <si>
+    <t>Xval Folds</t>
   </si>
 </sst>
 </file>
@@ -164,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -273,6 +288,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -555,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,65 +600,66 @@
     <col min="2" max="2" width="19" style="12" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="11.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>1</v>
@@ -637,24 +671,27 @@
         <v>3</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4">
         <v>30</v>
@@ -663,24 +700,27 @@
         <v>0.85</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="18">
+        <v>19</v>
+      </c>
+      <c r="H12" s="27">
+        <v>3</v>
+      </c>
+      <c r="I12" s="18">
         <v>0.99202000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
         <v>30</v>
@@ -689,24 +729,27 @@
         <v>0.86</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="18">
+        <v>19</v>
+      </c>
+      <c r="H13" s="27">
+        <v>3</v>
+      </c>
+      <c r="I13" s="18">
         <v>0.97607999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
         <v>30</v>
@@ -715,24 +758,27 @@
         <v>0.84</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="18">
+        <v>19</v>
+      </c>
+      <c r="H14" s="27">
+        <v>3</v>
+      </c>
+      <c r="I14" s="18">
         <v>1.00702</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
         <v>30</v>
@@ -741,24 +787,27 @@
         <v>0.83</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="20">
+        <v>19</v>
+      </c>
+      <c r="H15" s="27">
+        <v>3</v>
+      </c>
+      <c r="I15" s="20">
         <v>1.00969</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4">
         <v>30</v>
@@ -767,50 +816,56 @@
         <v>0.82</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="18">
+        <v>19</v>
+      </c>
+      <c r="H16" s="27">
+        <v>3</v>
+      </c>
+      <c r="I16" s="18">
         <v>1.0027999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4">
         <v>30</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="24">
         <v>0.83</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="18">
+      <c r="F17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="27">
+        <v>3</v>
+      </c>
+      <c r="I17" s="18">
         <v>0.77995999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
         <v>30</v>
@@ -819,50 +874,56 @@
         <v>0.83</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="21">
+        <v>19</v>
+      </c>
+      <c r="H18" s="27">
+        <v>3</v>
+      </c>
+      <c r="I18" s="21">
         <v>1.00983</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>30</v>
       </c>
       <c r="D19" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="8" t="s">
+        <v>0.85</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="F19" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0.88221000000000005</v>
+        <v>19</v>
+      </c>
+      <c r="H19" s="27">
+        <v>3</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0.99226999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
         <v>30</v>
@@ -871,50 +932,56 @@
         <v>0.83</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0.92456000000000005</v>
+        <v>19</v>
+      </c>
+      <c r="H20" s="27">
+        <v>3</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.88221000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
         <v>30</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="6">
         <v>0.83</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1.7829900000000001</v>
+        <v>23</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="27">
+        <v>3</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0.92456000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4">
         <v>30</v>
@@ -922,25 +989,28 @@
       <c r="D22" s="6">
         <v>0.83</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>22</v>
+      <c r="E22" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1.76413</v>
+        <v>19</v>
+      </c>
+      <c r="H22" s="27">
+        <v>3</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0.91496</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
         <v>30</v>
@@ -949,50 +1019,56 @@
         <v>0.83</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="18">
-        <v>1.55776</v>
+        <v>19</v>
+      </c>
+      <c r="H23" s="27">
+        <v>3</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0.88797999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4">
         <v>30</v>
       </c>
-      <c r="D24" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="21">
-        <v>1.8181499999999999</v>
+      <c r="F24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="27">
+        <v>3</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1.7829900000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4">
         <v>30</v>
@@ -1001,24 +1077,27 @@
         <v>0.83</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="18">
-        <v>1.7602599999999999</v>
+        <v>19</v>
+      </c>
+      <c r="H25" s="27">
+        <v>3</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1.76413</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>30</v>
@@ -1027,24 +1106,27 @@
         <v>0.83</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="18">
-        <v>3.5075699999999999</v>
+      <c r="H26" s="27">
+        <v>3</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1.55776</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4">
         <v>30</v>
@@ -1052,98 +1134,458 @@
       <c r="D27" s="6">
         <v>0.83</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="E27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="18">
-        <v>3.5078999999999998</v>
+        <v>19</v>
+      </c>
+      <c r="H27" s="27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1.8181499999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4">
         <v>30</v>
       </c>
       <c r="D28" s="6">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="18">
-        <v>3.5350000000000001</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="H28" s="27">
+        <v>3</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1.7602599999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="F29" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="18">
-        <v>3.2513000000000001</v>
+        <v>19</v>
+      </c>
+      <c r="H29" s="27">
+        <v>3</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1.78949</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4">
+        <v>30</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="27">
+        <v>3</v>
+      </c>
+      <c r="I30" s="21">
+        <v>1.8185199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4">
+        <v>30</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="27">
+        <v>3</v>
+      </c>
+      <c r="I31" s="18">
+        <v>3.5075699999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="4">
+        <v>30</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="27">
+        <v>3</v>
+      </c>
+      <c r="I32" s="18">
+        <v>3.5078999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4">
+        <v>30</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="27">
+        <v>3</v>
+      </c>
+      <c r="I33" s="28">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="J33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="4">
-        <v>30</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="E30" s="8" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="27">
+        <v>3</v>
+      </c>
+      <c r="I34" s="18">
+        <v>3.2513000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4">
+        <v>30</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="27">
+        <v>3</v>
+      </c>
+      <c r="I35" s="18">
+        <v>3.5203000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="4">
+        <v>30</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="27">
+        <v>3</v>
+      </c>
+      <c r="I36" s="18">
+        <v>3.5076000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="4">
+        <v>30</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="27">
+        <v>3</v>
+      </c>
+      <c r="I37" s="26">
+        <v>3.5293000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="4">
+        <v>30</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="18">
-        <v>3.5203000000000002</v>
+      <c r="F38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="27">
+        <v>3</v>
+      </c>
+      <c r="I38" s="26">
+        <v>3.5200999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="4">
+        <v>30</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="27">
+        <v>3</v>
+      </c>
+      <c r="I39" s="18">
+        <v>3.5341999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="4">
+        <v>30</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="27">
+        <v>3</v>
+      </c>
+      <c r="I40" s="18">
+        <v>3.4964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="4">
+        <v>30</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="27">
+        <v>3</v>
+      </c>
+      <c r="I41" s="18">
+        <v>3.5078999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="4">
+        <v>30</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="27">
+        <v>3</v>
+      </c>
+      <c r="I42" s="18">
+        <v>3.5224199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Algo-Results.xlsx
+++ b/Algo-Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\nycdsa\Projects\04-Kaggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="127">
   <si>
     <t>Algorithm</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Standardized</t>
   </si>
   <si>
-    <t>Whiten</t>
-  </si>
-  <si>
     <t>AMS Score</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Same AMS</t>
   </si>
   <si>
-    <t>Feature Engineering - Remove 7 Features Based on NA &gt; 70% --- "DER_mass_transverse_met_lep", "DER_mass_vis","DER_pt_h","DER_deltaeta_jet_jet","DER_pt_tot","DER_sum_pt","DER_pt_ratio_lep_tau"</t>
-  </si>
-  <si>
     <t>SVM</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Feature Engineering - Remove 5 PHI based variables</t>
   </si>
   <si>
-    <t>Feature Engineering - Created Polynomial Params on 16 pairs of multicollinear features - tested with source features included and removed</t>
-  </si>
-  <si>
     <t>AMS = 3.64580</t>
   </si>
   <si>
@@ -170,12 +161,50 @@
     <t>objective = reg:linear</t>
   </si>
   <si>
+    <t>objective = count:poisson</t>
+  </si>
+  <si>
+    <t>objective = rank:pairwise</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">objective = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binary:logitraw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /  binary:logistic / reg:logistic</t>
+    </r>
+  </si>
+  <si>
+    <t>eta = 0.01</t>
+  </si>
+  <si>
     <t>eta = 0.04</t>
   </si>
   <si>
     <t>eta = 0.12</t>
   </si>
   <si>
+    <t>eta = 0.16</t>
+  </si>
+  <si>
     <t>Kaggle # 275</t>
   </si>
   <si>
@@ -185,16 +214,220 @@
     <t>Top 15%</t>
   </si>
   <si>
-    <t>Ensemble Stacking</t>
-  </si>
-  <si>
-    <t>Stacking</t>
+    <t>max depth = 9</t>
+  </si>
+  <si>
+    <t>eta = 0.08</t>
+  </si>
+  <si>
+    <t>subsample = 0.9</t>
   </si>
   <si>
     <t>3% of training data</t>
   </si>
   <si>
     <t>30% of training data</t>
+  </si>
+  <si>
+    <t>AMS = 3.68787</t>
+  </si>
+  <si>
+    <t>Kaggle # 127</t>
+  </si>
+  <si>
+    <t>Top 7%</t>
+  </si>
+  <si>
+    <t>eval metric = rmse</t>
+  </si>
+  <si>
+    <t>overfitted</t>
+  </si>
+  <si>
+    <t>eval metric = no diff</t>
+  </si>
+  <si>
+    <t>78 polynomial features</t>
+  </si>
+  <si>
+    <t>AMS = 3.68305</t>
+  </si>
+  <si>
+    <t>Kaggle # 144</t>
+  </si>
+  <si>
+    <t>Top 8%</t>
+  </si>
+  <si>
+    <t>Kaggle # 118</t>
+  </si>
+  <si>
+    <t>AMS = 3.69373</t>
+  </si>
+  <si>
+    <t>boost + xgboost -&gt; logistic</t>
+  </si>
+  <si>
+    <t>AMS = 3.69600</t>
+  </si>
+  <si>
+    <t>Kaggle # 107</t>
+  </si>
+  <si>
+    <t>Top 6%</t>
+  </si>
+  <si>
+    <t>Model Stacking</t>
+  </si>
+  <si>
+    <t>boost + xgboost -&gt; logistic / drop 5 PHI features / eta=0.08</t>
+  </si>
+  <si>
+    <t>boost + xgboost -&gt; logistic / drop 5 PHI features / eta=0.08 / depth = 10</t>
+  </si>
+  <si>
+    <t>AMS = 3.69919</t>
+  </si>
+  <si>
+    <t>Kaggle # 99</t>
+  </si>
+  <si>
+    <t>Model Ensemble Stacking</t>
+  </si>
+  <si>
+    <t>forest + adaboost + boost + xgboost -&gt; logistic / drop 5 PHI features / eta=0.08 / depth = 10</t>
+  </si>
+  <si>
+    <t>Kaggle # 90</t>
+  </si>
+  <si>
+    <t>AMS = 3.70123</t>
+  </si>
+  <si>
+    <t>Top 5%</t>
+  </si>
+  <si>
+    <t>AMS = 3.71929</t>
+  </si>
+  <si>
+    <t>Kaggle # 45</t>
+  </si>
+  <si>
+    <t>Top 3%</t>
+  </si>
+  <si>
+    <t>boost + xgboost -&gt; logistic / drop 5 PHI features / eta=0.08 / boost depth = 9</t>
+  </si>
+  <si>
+    <t>boost + xgboost -&gt; logistic / drop 5 PHI features / eta=0.08 / boost depth = 9 / xgb depth = 7</t>
+  </si>
+  <si>
+    <t>AMS = 3.72250</t>
+  </si>
+  <si>
+    <t>Top 2%</t>
+  </si>
+  <si>
+    <t>Kaggle # 34</t>
+  </si>
+  <si>
+    <t>AMS = 3.72254</t>
+  </si>
+  <si>
+    <t>Kaggle Position</t>
+  </si>
+  <si>
+    <t>Private LB AMS</t>
+  </si>
+  <si>
+    <t>Top %</t>
+  </si>
+  <si>
+    <t>Feature Engineering - Created Polynomial Params on multicollinear pairs features - tested with source features included</t>
+  </si>
+  <si>
+    <t>eta = 0.12 / max depth = 7</t>
+  </si>
+  <si>
+    <t>eta = 0.12 / max depth = 7 / Drop 5 phi features</t>
+  </si>
+  <si>
+    <t>Drop 5 phi features</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>Whole Data</t>
+  </si>
+  <si>
+    <t>Removing The DER variables</t>
+  </si>
+  <si>
+    <t>Removing The Phi's</t>
+  </si>
+  <si>
+    <t>Grouping Based On Jet Value</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>AMS = 2.745</t>
+  </si>
+  <si>
+    <t>Kaggle # 1253</t>
+  </si>
+  <si>
+    <t>Top 70%</t>
+  </si>
+  <si>
+    <t>Feature Drops - Remove 7 Features Based on NA &gt; 70% --- "DER_mass_transverse_met_lep", "DER_mass_vis","DER_pt_h","DER_deltaeta_jet_jet","DER_pt_tot","DER_sum_pt","DER_pt_ratio_lep_tau"</t>
+  </si>
+  <si>
+    <t>Hidden Layer</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>AMS = 2.107</t>
+  </si>
+  <si>
+    <t>AMS = 1.633</t>
+  </si>
+  <si>
+    <t>AMS = 1.627</t>
+  </si>
+  <si>
+    <t>AMS = 2.317</t>
+  </si>
+  <si>
+    <t>AMS = 2.322</t>
+  </si>
+  <si>
+    <t>AMS = 2.327</t>
+  </si>
+  <si>
+    <t>AMS = 2.566</t>
+  </si>
+  <si>
+    <t>AMS = 2.674</t>
+  </si>
+  <si>
+    <t>Kaggle # 65</t>
+  </si>
+  <si>
+    <t>AMS = 3.71247</t>
+  </si>
+  <si>
+    <t>Top 4%</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>adaboost + boost + xgboost -&gt; logistic / drop 5 PHI features / eta=0.08 / boost depth = 9 / xgb depth = 7</t>
   </si>
 </sst>
 </file>
@@ -330,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,6 +662,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="3" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,26 +976,25 @@
     <col min="7" max="7" width="11.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>0</v>
@@ -759,22 +1006,31 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -785,9 +1041,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -797,12 +1053,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>30</v>
@@ -811,13 +1067,13 @@
         <v>0.85</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="23">
         <v>3</v>
@@ -826,12 +1082,12 @@
         <v>0.99202000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
@@ -840,13 +1096,13 @@
         <v>0.86</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="23">
         <v>3</v>
@@ -855,12 +1111,12 @@
         <v>0.97607999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>30</v>
@@ -869,13 +1125,13 @@
         <v>0.84</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="23">
         <v>3</v>
@@ -884,12 +1140,12 @@
         <v>1.00702</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>30</v>
@@ -898,13 +1154,13 @@
         <v>0.83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="23">
         <v>3</v>
@@ -913,70 +1169,70 @@
         <v>1.00969</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>30</v>
       </c>
       <c r="D10" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="23">
+        <v>3</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1.0027999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
+      <c r="D11" s="20">
         <v>0.83</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="23">
-        <v>3</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1.00983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="H11" s="23">
         <v>3</v>
       </c>
       <c r="I11" s="15">
-        <v>0.99226999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.77995999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>30</v>
@@ -984,57 +1240,57 @@
       <c r="D12" s="5">
         <v>0.83</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="23">
+        <v>3</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1.00983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="23">
-        <v>3</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0.88221000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="23">
         <v>3</v>
       </c>
       <c r="I13" s="15">
-        <v>0.92456000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99226999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>30</v>
@@ -1042,28 +1298,28 @@
       <c r="D14" s="5">
         <v>0.83</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>17</v>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="23">
         <v>3</v>
       </c>
-      <c r="I14" s="22">
-        <v>0.91496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="15">
+        <v>0.88221000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <v>30</v>
@@ -1072,56 +1328,56 @@
         <v>0.83</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="23">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.92456000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="23">
-        <v>3</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0.88797999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3">
-        <v>30</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.83</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>9</v>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H16" s="23">
         <v>3</v>
       </c>
-      <c r="I16" s="15">
-        <v>1.7829900000000001</v>
+      <c r="I16" s="22">
+        <v>0.91496</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3">
         <v>30</v>
@@ -1129,57 +1385,57 @@
       <c r="D17" s="5">
         <v>0.83</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>12</v>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="23">
         <v>3</v>
       </c>
-      <c r="I17" s="17">
-        <v>1.8181499999999999</v>
+      <c r="I17" s="15">
+        <v>0.88797999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3">
         <v>30</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="14">
         <v>0.83</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="G18" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H18" s="23">
         <v>3</v>
       </c>
       <c r="I18" s="15">
-        <v>1.7602599999999999</v>
+        <v>1.7829900000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
         <v>30</v>
@@ -1188,27 +1444,27 @@
         <v>0.83</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="23">
         <v>3</v>
       </c>
       <c r="I19" s="15">
-        <v>1.78949</v>
+        <v>1.76413</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3">
         <v>30</v>
@@ -1216,11 +1472,11 @@
       <c r="D20" s="5">
         <v>0.83</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>9</v>
@@ -1228,31 +1484,74 @@
       <c r="H20" s="23">
         <v>3</v>
       </c>
-      <c r="I20" s="18">
-        <v>1.8185199999999999</v>
+      <c r="I20" s="15">
+        <v>1.55776</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="A21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="23">
+        <v>3</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1.8181499999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="A22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="23">
+        <v>3</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1.7602599999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3">
         <v>30</v>
@@ -1261,123 +1560,71 @@
         <v>0.83</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="29">
+        <v>8</v>
+      </c>
+      <c r="H23" s="23">
         <v>3</v>
       </c>
       <c r="I23" s="15">
-        <v>3.5075699999999999</v>
+        <v>1.78949</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3">
         <v>30</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="5">
         <v>0.83</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>9</v>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="23">
         <v>3</v>
       </c>
-      <c r="I24" s="15">
-        <v>3.5078999999999998</v>
+      <c r="I24" s="18">
+        <v>1.8185199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3">
-        <v>30</v>
-      </c>
-      <c r="D25" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="23">
-        <v>3</v>
-      </c>
-      <c r="I25" s="18">
-        <v>3.5358299999999998</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="E25" s="10"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3">
-        <v>30</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="23">
-        <v>3</v>
-      </c>
-      <c r="I26" s="15">
-        <v>3.5076000000000001</v>
-      </c>
+      <c r="B26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3">
         <v>30</v>
@@ -1385,100 +1632,106 @@
       <c r="D27" s="5">
         <v>0.83</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="21" t="s">
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="23">
+        <v>8</v>
+      </c>
+      <c r="H27" s="29">
         <v>3</v>
       </c>
       <c r="I27" s="15">
-        <v>3.5078999999999998</v>
+        <v>3.5075699999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3">
         <v>30</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="20">
         <v>0.83</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>9</v>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="H28" s="23">
         <v>3</v>
       </c>
       <c r="I28" s="15">
-        <v>3.5224199999999999</v>
+        <v>3.5078999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3">
         <v>30</v>
       </c>
-      <c r="D29" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>9</v>
+      <c r="D29" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="23">
-        <v>10</v>
-      </c>
-      <c r="I29" s="15">
-        <v>2.8222999999999998</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="I29" s="18">
+        <v>3.5358299999999998</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3">
         <v>30</v>
       </c>
       <c r="D30" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="21" t="s">
+        <v>0.83</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -1488,12 +1741,12 @@
         <v>3</v>
       </c>
       <c r="I30" s="15">
-        <v>2.5430000000000001</v>
+        <v>3.2513000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>23</v>
@@ -1501,37 +1754,28 @@
       <c r="C31" s="3">
         <v>30</v>
       </c>
-      <c r="D31" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="D31" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="29">
-        <v>3</v>
-      </c>
-      <c r="I31" s="30">
-        <v>3.6076000000000001</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>31</v>
+      <c r="G31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="23">
+        <v>3</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3.5203000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>23</v>
@@ -1539,28 +1783,28 @@
       <c r="C32" s="3">
         <v>30</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="5">
         <v>0.83</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32" s="23">
         <v>3</v>
       </c>
       <c r="I32" s="15">
-        <v>3.5866500000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.5076000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>23</v>
@@ -1572,24 +1816,24 @@
         <v>0.85</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="23">
         <v>3</v>
       </c>
-      <c r="I33" s="15">
-        <v>3.5566499999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="22">
+        <v>3.5293000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>23</v>
@@ -1598,33 +1842,27 @@
         <v>30</v>
       </c>
       <c r="D34" s="5">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="31">
-        <v>10</v>
-      </c>
-      <c r="I34" s="18">
-        <v>3.6484200000000002</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H34" s="23">
+        <v>3</v>
+      </c>
+      <c r="I34" s="22">
+        <v>3.5200999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>23</v>
@@ -1636,24 +1874,24 @@
         <v>0.85</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="23">
+        <v>3</v>
+      </c>
+      <c r="I35" s="15">
+        <v>3.5341999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="I35" s="15">
-        <v>3.6419000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>23</v>
@@ -1662,280 +1900,370 @@
         <v>30</v>
       </c>
       <c r="D36" s="5">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E36" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="23">
+        <v>3</v>
+      </c>
+      <c r="I36" s="15">
+        <v>3.4964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3">
+        <v>30</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="23">
-        <v>30</v>
-      </c>
-      <c r="I36" s="18">
-        <v>3.6541199999999998</v>
-      </c>
-      <c r="J36" s="19" t="s">
+      <c r="F37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="23">
+        <v>3</v>
+      </c>
+      <c r="I37" s="15">
+        <v>3.5078999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3">
+        <v>30</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="23">
+        <v>3</v>
+      </c>
+      <c r="I38" s="15">
+        <v>3.5224199999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3">
+        <v>30</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="23">
+        <v>10</v>
+      </c>
+      <c r="I39" s="15">
+        <v>2.8222999999999998</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="3">
+        <v>30</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="23">
+        <v>3</v>
+      </c>
+      <c r="I40" s="15">
+        <v>2.5430000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="3">
+        <v>30</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="29">
+        <v>3</v>
+      </c>
+      <c r="I41" s="30">
+        <v>3.6076000000000001</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="19"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="L41" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="3">
+        <v>30</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="23">
+        <v>3</v>
+      </c>
+      <c r="I42" s="15">
+        <v>3.5866500000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="3">
+        <v>30</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="23">
+        <v>3</v>
+      </c>
+      <c r="I43" s="15">
+        <v>3.5543900000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="3">
+        <v>30</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="3">
-        <v>25</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E39" s="21" t="s">
+      <c r="F44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="23">
+        <v>3</v>
+      </c>
+      <c r="I44" s="15">
+        <v>3.58718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="3">
+        <v>30</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="23">
-        <v>10</v>
-      </c>
-      <c r="I39" s="15">
-        <v>3.6404000000000001</v>
-      </c>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="3">
-        <v>13</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="23">
-        <v>3</v>
-      </c>
-      <c r="I40" s="15">
-        <v>0.67110000000000003</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="3">
-        <v>23</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="29">
-        <v>3</v>
-      </c>
-      <c r="I43" s="15">
-        <v>3.3387699999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="3">
-        <v>23</v>
-      </c>
-      <c r="D44" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="23">
-        <v>3</v>
-      </c>
-      <c r="I44" s="18">
-        <v>3.4148200000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="3">
-        <v>23</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>12</v>
-      </c>
       <c r="F45" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" s="23">
         <v>3</v>
       </c>
       <c r="I45" s="15">
-        <v>3.3973599999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.5919099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D46" s="5">
         <v>0.85</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" s="23">
         <v>3</v>
       </c>
       <c r="I46" s="15">
-        <v>3.3850199999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.5566499999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D47" s="5">
         <v>0.85</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47" s="23">
         <v>3</v>
       </c>
       <c r="I47" s="15">
-        <v>3.3645399999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.5880999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D48" s="5">
         <v>0.85</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>9</v>
@@ -1947,340 +2275,2123 @@
         <v>3</v>
       </c>
       <c r="I48" s="15">
-        <v>3.40686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.3513099999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3">
+        <v>30</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="23">
+        <v>3</v>
+      </c>
+      <c r="I49" s="15">
+        <v>3.4249999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="3">
+        <v>30</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="23">
+        <v>5</v>
+      </c>
+      <c r="I50" s="15">
+        <v>3.5860500000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="3">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D51" s="5">
         <v>0.85</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="23">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="H51" s="31">
+        <v>10</v>
       </c>
       <c r="I51" s="18">
-        <v>3.5745499999999999</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.6484200000000002</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="3">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D52" s="5">
         <v>0.85</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H52" s="23">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I52" s="15">
-        <v>3.5978400000000001</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.6419000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="3">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D53" s="5">
         <v>0.85</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H53" s="23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I53" s="15">
-        <v>3.6305000000000001</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.6412900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D54" s="5">
         <v>0.85</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H54" s="23">
-        <v>3</v>
-      </c>
-      <c r="I54" s="15">
-        <v>3.3899499999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I54" s="18">
+        <v>3.6541199999999998</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="H55" s="23"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="33" t="s">
+      <c r="I55" s="5"/>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="3">
+        <v>25</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="23">
+        <v>10</v>
+      </c>
+      <c r="I57" s="15">
+        <v>3.6404000000000001</v>
+      </c>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="3">
+        <v>13</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="23">
+        <v>3</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="3">
+        <v>23</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="23">
+        <v>3</v>
+      </c>
+      <c r="I61" s="15">
+        <v>3.3899499999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="3">
+        <v>23</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="29">
+        <v>3</v>
+      </c>
+      <c r="I62" s="15">
+        <v>3.3387699999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="3">
+        <v>23</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="23">
+        <v>3</v>
+      </c>
+      <c r="I63" s="18">
+        <v>3.4148200000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="3">
+        <v>23</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="23">
+        <v>3</v>
+      </c>
+      <c r="I64" s="15">
+        <v>3.2873800000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="3">
+        <v>23</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="23">
+        <v>3</v>
+      </c>
+      <c r="I65" s="15">
+        <v>3.2899400000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="3">
+        <v>23</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="23">
+        <v>3</v>
+      </c>
+      <c r="I66" s="15">
+        <v>3.3973599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="3">
+        <v>23</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="23">
+        <v>3</v>
+      </c>
+      <c r="I67" s="15">
+        <v>3.3850199999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="3">
+        <v>23</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="23">
+        <v>3</v>
+      </c>
+      <c r="I68" s="15">
+        <v>3.3645399999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="3">
+        <v>23</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="23">
+        <v>3</v>
+      </c>
+      <c r="I69" s="15">
+        <v>3.40686</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="3">
+        <v>78</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="23">
+        <v>3</v>
+      </c>
+      <c r="I72" s="18">
+        <v>3.5745499999999999</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="3">
+        <v>78</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="23">
+        <v>3</v>
+      </c>
+      <c r="I73" s="15">
+        <v>3.5978400000000001</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L73" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="3">
+        <v>78</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="23">
+        <v>30</v>
+      </c>
+      <c r="I74" s="15">
+        <v>3.6305000000000001</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="3">
+        <v>23</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="23">
+        <v>3</v>
+      </c>
+      <c r="I75" s="15">
+        <v>3.3899499999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="3">
+        <v>30</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="23">
+        <v>3</v>
+      </c>
+      <c r="I78" s="15">
+        <v>3.6076000000000001</v>
+      </c>
+      <c r="J78" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="3">
+        <v>30</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="23">
+        <v>3</v>
+      </c>
+      <c r="I79" s="15">
+        <v>3.49675</v>
+      </c>
+      <c r="J79" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="3">
+        <v>30</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="23">
+        <v>3</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1.0853299999999999</v>
+      </c>
+      <c r="J80" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="3">
+        <v>30</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="23">
+        <v>3</v>
+      </c>
+      <c r="I81" s="15">
+        <v>3.4572099999999999</v>
+      </c>
+      <c r="J81" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="3">
-        <v>30</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="23">
-        <v>3</v>
-      </c>
-      <c r="I57" s="15">
-        <v>3.49675</v>
-      </c>
-      <c r="J57" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="3">
-        <v>30</v>
-      </c>
-      <c r="D58" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="23">
-        <v>3</v>
-      </c>
-      <c r="I58" s="15">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="3">
+        <v>30</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="23">
+        <v>3</v>
+      </c>
+      <c r="I82" s="15">
+        <v>3.0647700000000002</v>
+      </c>
+      <c r="J82" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="3">
+        <v>30</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="23">
+        <v>3</v>
+      </c>
+      <c r="I83" s="15">
         <v>3.4562200000000001</v>
       </c>
-      <c r="J58" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="3">
-        <v>30</v>
-      </c>
-      <c r="D59" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="23">
-        <v>3</v>
-      </c>
-      <c r="I59" s="18">
+      <c r="J83" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="3">
+        <v>30</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="23">
+        <v>3</v>
+      </c>
+      <c r="I84" s="18">
         <v>3.5864600000000002</v>
       </c>
-      <c r="J59" s="27" t="s">
+      <c r="J84" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K84" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M84" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="3">
+        <v>30</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="23">
+        <v>3</v>
+      </c>
+      <c r="I85" s="15">
+        <v>3.5435599999999998</v>
+      </c>
+      <c r="J85" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="3">
+        <v>30</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="23">
+        <v>3</v>
+      </c>
+      <c r="I86" s="15">
+        <v>3.4874800000000001</v>
+      </c>
+      <c r="J86" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K59" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="L59" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="3">
-        <v>30</v>
-      </c>
-      <c r="D62" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="23">
-        <v>3</v>
-      </c>
-      <c r="I62" s="15">
+      <c r="K86" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="3">
+        <v>30</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="23">
+        <v>3</v>
+      </c>
+      <c r="I87" s="15">
+        <v>3.5490200000000001</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="3">
+        <v>30</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="23">
+        <v>3</v>
+      </c>
+      <c r="I88" s="15">
+        <v>3.5493000000000001</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="3">
+        <v>30</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="23">
+        <v>3</v>
+      </c>
+      <c r="I89" s="15">
+        <v>3.5864600000000002</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="3">
+        <v>30</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="23">
+        <v>3</v>
+      </c>
+      <c r="I90" s="15">
+        <v>3.5864600000000002</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="3">
+        <v>78</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="23">
+        <v>3</v>
+      </c>
+      <c r="I91" s="15">
+        <v>3.5647099999999998</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="3">
+        <v>78</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="23">
+        <v>5</v>
+      </c>
+      <c r="I92" s="15">
+        <v>3.6025399999999999</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="3">
+        <v>25</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="23">
+        <v>3</v>
+      </c>
+      <c r="I93" s="18">
+        <v>3.5725699999999998</v>
+      </c>
+      <c r="J93" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K93" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L93" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="3">
+        <v>25</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="23">
+        <v>3</v>
+      </c>
+      <c r="I94" s="15">
+        <v>3.5907399999999998</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="H95" s="23"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K96" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L96" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="36">
+        <v>30</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="36">
+        <v>10</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="29">
+        <v>10</v>
+      </c>
+      <c r="I97" s="36">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="K97" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="M97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="36">
+        <v>17</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+      <c r="E98" s="36">
+        <v>10</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="23">
+        <v>10</v>
+      </c>
+      <c r="I98" s="36">
+        <v>1.587</v>
+      </c>
+      <c r="K98" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="36">
+        <v>17</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+      <c r="E99" s="36">
+        <v>20</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="23">
+        <v>10</v>
+      </c>
+      <c r="I99" s="36">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="K99" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="M99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="36">
+        <v>25</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="36">
+        <v>10</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="23">
+        <v>10</v>
+      </c>
+      <c r="I100" s="36">
+        <v>2.306</v>
+      </c>
+      <c r="K100" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="M100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="36">
+        <v>25</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="36">
+        <v>20</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="23">
+        <v>10</v>
+      </c>
+      <c r="I101" s="36">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="K101" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="M101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="36">
+        <v>25</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1</v>
+      </c>
+      <c r="E102" s="37">
+        <v>30</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="23">
+        <v>10</v>
+      </c>
+      <c r="I102" s="36">
+        <v>2.218</v>
+      </c>
+      <c r="K102" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="M102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="37">
+        <v>29</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="36">
+        <v>10</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="23">
+        <v>10</v>
+      </c>
+      <c r="I103" s="36">
+        <v>2.552</v>
+      </c>
+      <c r="K103" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="M103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="36">
+        <v>29</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+      <c r="E104" s="36">
+        <v>20</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="23">
+        <v>10</v>
+      </c>
+      <c r="I104" s="36">
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="K104" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="M104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="36">
+        <v>29</v>
+      </c>
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+      <c r="E105" s="36">
+        <v>30</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="23">
+        <v>10</v>
+      </c>
+      <c r="I105" s="37">
+        <v>2.698</v>
+      </c>
+      <c r="J105" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K105" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L105" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="M105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="3">
+        <v>30</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="23">
+        <v>3</v>
+      </c>
+      <c r="I108" s="15">
         <v>0.58160000000000001</v>
       </c>
-      <c r="J62" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="3">
-        <v>30</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="23">
-        <v>3</v>
-      </c>
-      <c r="I63" s="15">
+      <c r="J108" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="M108" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="3">
+        <v>30</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="23">
+        <v>3</v>
+      </c>
+      <c r="I109" s="15">
         <v>2.0114999999999998</v>
       </c>
-      <c r="J63" s="34" t="s">
-        <v>56</v>
-      </c>
+      <c r="J109" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="M109" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="3">
+        <v>30</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="23">
+        <v>3</v>
+      </c>
+      <c r="I110" s="15">
+        <v>3.6519200000000001</v>
+      </c>
+      <c r="J110" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L110" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M110" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="3">
+        <v>30</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="23">
+        <v>5</v>
+      </c>
+      <c r="I111" s="17">
+        <v>3.6816</v>
+      </c>
+      <c r="J111" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K111" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L111" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M111" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="3">
+        <v>25</v>
+      </c>
+      <c r="D112" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="23">
+        <v>5</v>
+      </c>
+      <c r="I112" s="15">
+        <v>3.67733</v>
+      </c>
+      <c r="J112" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K112" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L112" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M112" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="3">
+        <v>25</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="23">
+        <v>5</v>
+      </c>
+      <c r="I113" s="15">
+        <v>3.6816300000000002</v>
+      </c>
+      <c r="J113" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K113" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L113" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M113" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="3">
+        <v>25</v>
+      </c>
+      <c r="D114" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="23">
+        <v>5</v>
+      </c>
+      <c r="I114" s="15">
+        <v>3.6512099999999998</v>
+      </c>
+      <c r="J114" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K114" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L114" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M114" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="3">
+        <v>25</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="23">
+        <v>5</v>
+      </c>
+      <c r="I115" s="15">
+        <v>3.68</v>
+      </c>
+      <c r="J115" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="K115" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L115" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="M115" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="3">
+        <v>25</v>
+      </c>
+      <c r="D116" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="23">
+        <v>5</v>
+      </c>
+      <c r="I116" s="15">
+        <v>3.6898900000000001</v>
+      </c>
+      <c r="J116" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L116" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M116" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="3">
+        <v>25</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="23">
+        <v>5</v>
+      </c>
+      <c r="I117" s="15">
+        <v>3.68743</v>
+      </c>
+      <c r="J117" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K117" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L117" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M117" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="3">
+        <v>25</v>
+      </c>
+      <c r="D118" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="23">
+        <v>5</v>
+      </c>
+      <c r="I118" s="15">
+        <v>3.6918199999999999</v>
+      </c>
+      <c r="J118" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K118" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="L118" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="M118" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M119" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
